--- a/source/resources/source-data/capstatements-spreadsheets/query-requester.xlsx
+++ b/source/resources/source-data/capstatements-spreadsheets/query-requester.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-Alerts\source\resources\source-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-Notifications\source\resources\source-data\capstatements-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520AF964-CFBC-4528-880B-76BF4A049CA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2276AF-0458-4D05-AC9A-E07CE5955C7B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-465" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="93">
   <si>
     <t>Element</t>
   </si>
@@ -93,6 +93,9 @@
     <t>mode</t>
   </si>
   <si>
+    <t>server</t>
+  </si>
+  <si>
     <t>documentation</t>
   </si>
   <si>
@@ -111,6 +114,9 @@
     <t>Type</t>
   </si>
   <si>
+    <t>SHALL</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
@@ -129,9 +135,6 @@
     <t>referencePolicy</t>
   </si>
   <si>
-    <t>resolves</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -267,54 +270,6 @@
     <t>should_include</t>
   </si>
   <si>
-    <t>conf_Device</t>
-  </si>
-  <si>
-    <t>conf_DiagnosticReport</t>
-  </si>
-  <si>
-    <t>conf_DocumentReference</t>
-  </si>
-  <si>
-    <t>conf_Encounter</t>
-  </si>
-  <si>
-    <t>conf_Goal</t>
-  </si>
-  <si>
-    <t>conf_Immunization</t>
-  </si>
-  <si>
-    <t>conf_Location</t>
-  </si>
-  <si>
-    <t>conf_Medication</t>
-  </si>
-  <si>
-    <t>conf_MedicationRequest</t>
-  </si>
-  <si>
-    <t>conf_MedicationStatement</t>
-  </si>
-  <si>
-    <t>conf_Observation</t>
-  </si>
-  <si>
-    <t>conf_Organization</t>
-  </si>
-  <si>
-    <t>conf_Patient</t>
-  </si>
-  <si>
-    <t>conf_Practitioner</t>
-  </si>
-  <si>
-    <t>conf_PractitionerRole</t>
-  </si>
-  <si>
-    <t>conf_Procedure</t>
-  </si>
-  <si>
     <t>conditionalCreate</t>
   </si>
   <si>
@@ -357,105 +312,53 @@
     <t>referencePolicy_conf</t>
   </si>
   <si>
-    <t>doc_DiagnosticReport</t>
-  </si>
-  <si>
-    <t>Communication</t>
-  </si>
-  <si>
-    <t>Da Vinci Alerts Communication Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/alerts-communication</t>
-  </si>
-  <si>
-    <t>Coverage</t>
-  </si>
-  <si>
-    <t>conf_Communication</t>
-  </si>
-  <si>
     <t>conf_Coverage</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/ImplementationGuide/hl7.fhir.us.core-3.0.0</t>
-  </si>
-  <si>
     <t xml:space="preserve"> US Core Implementation Guide STU 3</t>
   </si>
   <si>
-    <t>transaction</t>
-  </si>
-  <si>
-    <t>batch</t>
-  </si>
-  <si>
-    <t>search-system</t>
-  </si>
-  <si>
-    <t>history-system</t>
-  </si>
-  <si>
     <t>doc</t>
   </si>
   <si>
-    <t>client</t>
-  </si>
-  <si>
-    <t>1. For general security consideration refer to the [Security and Privacy Considerations](http://build.fhir.org/secpriv-module.html). 
-1. For security considerations specific to this guide refer to the  [Security](security.html) page for requirements and recommendations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/alerts-bundle</t>
-  </si>
-  <si>
-    <t>Da Vinci Alerts Bundle Profile</t>
-  </si>
-  <si>
-    <t>Bundle</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-hrex/StructureDefinition/hrex-coverage</t>
-  </si>
-  <si>
-    <t>HRex Coverage Profile</t>
-  </si>
-  <si>
     <t>conf_Bundle</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/davinci-alerts/ImplementationGuide/hl7.fhir.us.davinci-alerts-0.1.0</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/alerts-endpoint</t>
-  </si>
-  <si>
-    <t>Da Vinci Alerts Endpoint Profile</t>
-  </si>
-  <si>
-    <t>Endpoint</t>
-  </si>
-  <si>
     <t>conf_Endpoint</t>
   </si>
   <si>
-    <t>This CapabilityStatement describes the expected capabilities of a client that is capable of requesting a follow up FHIR RESTful query from a  Da Vinci Sender/Intermediary</t>
+    <t>version</t>
+  </si>
+  <si>
+    <t>fhirVersion</t>
+  </si>
+  <si>
+    <t>4.0.0</t>
+  </si>
+  <si>
+    <t>0.1.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ImplementationGuide/hl7.fhir.us.core|3.1.0</t>
+  </si>
+  <si>
+    <t>This CapabilityStatement describes the expected capabilities of a client that is capable of responding a Da Vinci Notification with a  follow up FHIR RESTful query to the Sender.  These expectations are same as described in the *HL7 FHIR® US Core Implementation Guide STU3 Release 3.1.0* [CapabiltyStatement for the US Core Client](http://hl7.org/fhir/us/core/STU3.1/CapabilityStatement-us-core-client.html)</t>
+  </si>
+  <si>
+    <t>refer to the  *HL7 FHIR® US Core Implementation Guide STU3 Release 3.1.0* CapabiltyStatement for the US Core Client</t>
   </si>
   <si>
     <t>query-requester</t>
   </si>
   <si>
-    <t>The Da Vinci Alert Query Requester **SHALL**:
-1. Support at least one use case defined in this Guide and listed in the [Scenarios](index.html#scenarios) Section.
-The Da Vinci Alert Query Requester **SHOULD**:
-1. Declare a CapabilityStatement identifying the scenarios, transactions and profiles supported.</t>
+    <t>http://hl7.org/fhir/us/davinci-notifications/ImplementationGuide/hl7.fhir.us.davinci-notifications|0.1.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -516,6 +419,18 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF005C00"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF032F62"/>
       <name val="Consolas"/>
       <family val="3"/>
@@ -529,7 +444,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -546,12 +461,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -575,7 +505,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -891,19 +825,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="102" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="95.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="38.25" customHeight="1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -911,53 +845,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="29.25" customHeight="1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="40.5" customHeight="1">
-      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1">
+      <c r="A3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="1" customFormat="1">
+      <c r="A4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="105" customHeight="1">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="35.25" customHeight="1">
-      <c r="A4" t="s">
+      <c r="B5" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="39.75" customHeight="1">
-      <c r="A5" t="s">
+      <c r="B6" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="102" customHeight="1">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="102" customHeight="1">
-      <c r="A7" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="351.75" customHeight="1">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>109</v>
-      </c>
+      <c r="B8" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="103.5" customHeight="1">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -969,7 +917,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -979,24 +927,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1009,7 +957,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1022,77 +970,32 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" t="s">
-        <v>95</v>
-      </c>
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1"/>
     <row r="4" spans="1:6">
-      <c r="A4" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1">
-      <c r="A5" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1"/>
     <row r="6" spans="1:6">
       <c r="F6" s="1"/>
     </row>
@@ -1166,10 +1069,10 @@
   <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S9" sqref="S9"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1188,130 +1091,86 @@
   <sheetData>
     <row r="1" spans="1:23" ht="18" thickBot="1">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="R1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickTop="1">
-      <c r="A2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="A2"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="A3"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="A4"/>
+    </row>
+    <row r="5" spans="1:23" s="1" customFormat="1">
+      <c r="C5" s="2"/>
     </row>
     <row r="36" spans="20:23" ht="18">
       <c r="T36" s="7"/>
@@ -1329,39 +1188,46 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="77.42578125" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" customWidth="1"/>
     <col min="5" max="5" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="E3" s="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A2" s="15"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="16"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="E4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1373,8 +1239,8 @@
   <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R17" sqref="R17"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1383,662 +1249,190 @@
     <col min="2" max="2" width="8.85546875" customWidth="1"/>
     <col min="3" max="3" width="58.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="28.140625" customWidth="1"/>
-    <col min="19" max="19" width="21.85546875" customWidth="1"/>
-    <col min="20" max="20" width="19" customWidth="1"/>
-    <col min="21" max="21" width="22.42578125" customWidth="1"/>
+    <col min="19" max="19" width="37.42578125" customWidth="1"/>
+    <col min="22" max="22" width="13" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="U1" s="1" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="S2" s="1"/>
       <c r="T2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="S3" s="1"/>
       <c r="T3" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="S4" s="1"/>
       <c r="T4" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="V5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="S6" s="1"/>
       <c r="T6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="S7" s="1"/>
       <c r="T7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="S8" s="1"/>
       <c r="T8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="S9" s="1"/>
       <c r="T9" s="1" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="S10" s="1"/>
       <c r="T10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2049,10 +1443,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D418CE29-40DC-476E-89CD-A42CEC26847E}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2063,49 +1457,19 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
-      <c r="A2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C2" s="2"/>
       <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2120,7 +1484,7 @@
       <pane xSplit="6" ySplit="1" topLeftCell="G76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F91" sqref="F91"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.95" customHeight="1"/>
@@ -2152,88 +1516,88 @@
   <sheetData>
     <row r="1" spans="1:28" ht="18.95" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AA1" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AB1" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1" thickTop="1">
@@ -2763,7 +2127,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AB92" xr:uid="{1CF5B17E-E72E-48B2-A597-9C21C12723F0}"/>
-  <sortState ref="A7:AA34">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:AA34">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2776,11 +2140,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="G61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E80" sqref="D79:E80"/>
+      <selection pane="bottomRight" activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2799,34 +2163,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1">

--- a/source/resources/source-data/capstatements-spreadsheets/query-requester.xlsx
+++ b/source/resources/source-data/capstatements-spreadsheets/query-requester.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-Notifications\source\resources\source-data\capstatements-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2276AF-0458-4D05-AC9A-E07CE5955C7B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E91FDD-D673-4D23-A110-023BD6827BC5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-465" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">sp_combos!$B$1:$B$81</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">sps!$A$1:$AB$92</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -345,13 +345,13 @@
     <t>This CapabilityStatement describes the expected capabilities of a client that is capable of responding a Da Vinci Notification with a  follow up FHIR RESTful query to the Sender.  These expectations are same as described in the *HL7 FHIR® US Core Implementation Guide STU3 Release 3.1.0* [CapabiltyStatement for the US Core Client](http://hl7.org/fhir/us/core/STU3.1/CapabilityStatement-us-core-client.html)</t>
   </si>
   <si>
-    <t>refer to the  *HL7 FHIR® US Core Implementation Guide STU3 Release 3.1.0* CapabiltyStatement for the US Core Client</t>
-  </si>
-  <si>
     <t>query-requester</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/davinci-notifications/ImplementationGuide/hl7.fhir.us.davinci-notifications|0.1.0</t>
+  </si>
+  <si>
+    <t>Refer to the  *HL7 FHIR® US Core Implementation Guide STU3 Release 3.1.0* CapabiltyStatement for the US Core Client</t>
   </si>
 </sst>
 </file>
@@ -850,7 +850,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1">
@@ -882,7 +882,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -898,7 +898,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="103.5" customHeight="1">

--- a/source/resources/source-data/capstatements-spreadsheets/query-requester.xlsx
+++ b/source/resources/source-data/capstatements-spreadsheets/query-requester.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-Notifications\source\resources\source-data\capstatements-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E91FDD-D673-4D23-A110-023BD6827BC5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C6E8EA-FCFD-48B0-943B-0F8498F2F30B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-465" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -342,9 +342,6 @@
     <t>http://hl7.org/fhir/us/core/ImplementationGuide/hl7.fhir.us.core|3.1.0</t>
   </si>
   <si>
-    <t>This CapabilityStatement describes the expected capabilities of a client that is capable of responding a Da Vinci Notification with a  follow up FHIR RESTful query to the Sender.  These expectations are same as described in the *HL7 FHIR® US Core Implementation Guide STU3 Release 3.1.0* [CapabiltyStatement for the US Core Client](http://hl7.org/fhir/us/core/STU3.1/CapabilityStatement-us-core-client.html)</t>
-  </si>
-  <si>
     <t>query-requester</t>
   </si>
   <si>
@@ -352,6 +349,9 @@
   </si>
   <si>
     <t>Refer to the  *HL7 FHIR® US Core Implementation Guide STU3 Release 3.1.0* CapabiltyStatement for the US Core Client</t>
+  </si>
+  <si>
+    <t>This CapabilityStatement describes the expected capabilities of a client that is capable of responding a Da Vinci Notification with a  follow up FHIR RESTful query to the Sender.  These expectations are the same as described in the *HL7 FHIR® US Core Implementation Guide STU3 Release 3.1.0* [CapabiltyStatement for the US Core Client](http://hl7.org/fhir/us/core/STU3.1/CapabilityStatement-us-core-client.html)</t>
   </si>
 </sst>
 </file>
@@ -828,7 +828,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -850,7 +850,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1">
@@ -874,7 +874,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -882,7 +882,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -898,7 +898,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="103.5" customHeight="1">

--- a/source/resources/source-data/capstatements-spreadsheets/query-requester.xlsx
+++ b/source/resources/source-data/capstatements-spreadsheets/query-requester.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-Notifications\source\resources\source-data\capstatements-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C6E8EA-FCFD-48B0-943B-0F8498F2F30B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2857B7-C0E5-4D2D-A939-306D8F2CE7EC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-465" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -345,13 +345,13 @@
     <t>query-requester</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/davinci-notifications/ImplementationGuide/hl7.fhir.us.davinci-notifications|0.1.0</t>
-  </si>
-  <si>
     <t>Refer to the  *HL7 FHIR® US Core Implementation Guide STU3 Release 3.1.0* CapabiltyStatement for the US Core Client</t>
   </si>
   <si>
     <t>This CapabilityStatement describes the expected capabilities of a client that is capable of responding a Da Vinci Notification with a  follow up FHIR RESTful query to the Sender.  These expectations are the same as described in the *HL7 FHIR® US Core Implementation Guide STU3 Release 3.1.0* [CapabiltyStatement for the US Core Client](http://hl7.org/fhir/us/core/STU3.1/CapabilityStatement-us-core-client.html)</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-alerts/ImplementationGuide/hl7.fhir.us.davinci-alerts|0.1.0</t>
   </si>
 </sst>
 </file>
@@ -828,7 +828,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -874,7 +874,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -882,7 +882,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -898,7 +898,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="103.5" customHeight="1">
